--- a/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H2">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>0.1361906639788851</v>
+        <v>0.2305690042677778</v>
       </c>
       <c r="R2">
-        <v>0.1361906639788851</v>
+        <v>2.07512103841</v>
       </c>
       <c r="S2">
-        <v>0.00115193437008494</v>
+        <v>0.001645275761254967</v>
       </c>
       <c r="T2">
-        <v>0.00115193437008494</v>
+        <v>0.001645275761254967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H3">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>10.19013463072126</v>
+        <v>11.55146780650022</v>
       </c>
       <c r="R3">
-        <v>10.19013463072126</v>
+        <v>103.963210258502</v>
       </c>
       <c r="S3">
-        <v>0.08619068278234204</v>
+        <v>0.08242803515289286</v>
       </c>
       <c r="T3">
-        <v>0.08619068278234204</v>
+        <v>0.08242803515289289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H4">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>0.01713688166465335</v>
+        <v>0.02015750415466667</v>
       </c>
       <c r="R4">
-        <v>0.01713688166465335</v>
+        <v>0.181417537392</v>
       </c>
       <c r="S4">
-        <v>0.000144947989890505</v>
+        <v>0.000143838297339189</v>
       </c>
       <c r="T4">
-        <v>0.000144947989890505</v>
+        <v>0.0001438382973391891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H5">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I5">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J5">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>1.763829807897272</v>
+        <v>2.160077884961111</v>
       </c>
       <c r="R5">
-        <v>1.763829807897272</v>
+        <v>19.44070096465</v>
       </c>
       <c r="S5">
-        <v>0.01491890941226481</v>
+        <v>0.01541371008577528</v>
       </c>
       <c r="T5">
-        <v>0.01491890941226481</v>
+        <v>0.01541371008577529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>0.877564573795409</v>
+        <v>1.359071536100556</v>
       </c>
       <c r="R6">
-        <v>0.877564573795409</v>
+        <v>12.231643824905</v>
       </c>
       <c r="S6">
-        <v>0.007422658536128447</v>
+        <v>0.009697953388222564</v>
       </c>
       <c r="T6">
-        <v>0.007422658536128447</v>
+        <v>0.009697953388222566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>65.66163122248363</v>
+        <v>68.08925226464345</v>
       </c>
       <c r="R7">
-        <v>65.66163122248363</v>
+        <v>612.803270381791</v>
       </c>
       <c r="S7">
-        <v>0.5553823411327821</v>
+        <v>0.4858658114465751</v>
       </c>
       <c r="T7">
-        <v>0.5553823411327821</v>
+        <v>0.4858658114465752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H8">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I8">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J8">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>0.11042401743893</v>
+        <v>0.1188168818373334</v>
       </c>
       <c r="R8">
-        <v>0.11042401743893</v>
+        <v>1.069351936536</v>
       </c>
       <c r="S8">
-        <v>0.0009339936913038576</v>
+        <v>0.0008478439516866988</v>
       </c>
       <c r="T8">
-        <v>0.0009339936913038576</v>
+        <v>0.000847843951686699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H9">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I9">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J9">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>11.36549678511729</v>
+        <v>12.73241552364722</v>
       </c>
       <c r="R9">
-        <v>11.36549678511729</v>
+        <v>114.591739712825</v>
       </c>
       <c r="S9">
-        <v>0.09613218701904781</v>
+        <v>0.09085494691625723</v>
       </c>
       <c r="T9">
-        <v>0.09613218701904781</v>
+        <v>0.09085494691625723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H10">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>0.107587205230711</v>
+        <v>0.4105063474638889</v>
       </c>
       <c r="R10">
-        <v>0.107587205230711</v>
+        <v>3.694557127175</v>
       </c>
       <c r="S10">
-        <v>0.0009099992309741043</v>
+        <v>0.002929258186582856</v>
       </c>
       <c r="T10">
-        <v>0.0009099992309741043</v>
+        <v>0.002929258186582857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H11">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I11">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J11">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>8.049950516534357</v>
+        <v>20.56629802497611</v>
       </c>
       <c r="R11">
-        <v>8.049950516534357</v>
+        <v>185.096682224785</v>
       </c>
       <c r="S11">
-        <v>0.06808847542528038</v>
+        <v>0.1467553357689886</v>
       </c>
       <c r="T11">
-        <v>0.06808847542528038</v>
+        <v>0.1467553357689886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H12">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I12">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J12">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>0.01353770626270913</v>
+        <v>0.03588853337333334</v>
       </c>
       <c r="R12">
-        <v>0.01353770626270913</v>
+        <v>0.3229968003600001</v>
       </c>
       <c r="S12">
-        <v>0.000114505272832406</v>
+        <v>0.0002560905107503519</v>
       </c>
       <c r="T12">
-        <v>0.000114505272832406</v>
+        <v>0.0002560905107503519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H13">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I13">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J13">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>1.393381264105668</v>
+        <v>3.845814772930556</v>
       </c>
       <c r="R13">
-        <v>1.393381264105668</v>
+        <v>34.612332956375</v>
       </c>
       <c r="S13">
-        <v>0.0117855638695217</v>
+        <v>0.02744265582563033</v>
       </c>
       <c r="T13">
-        <v>0.0117855638695217</v>
+        <v>0.02744265582563033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H14">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I14">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J14">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>0.2085604227195253</v>
+        <v>0.3140859301327777</v>
       </c>
       <c r="R14">
-        <v>0.2085604227195253</v>
+        <v>2.826773371195</v>
       </c>
       <c r="S14">
-        <v>0.001764055715355884</v>
+        <v>0.002241229125483532</v>
       </c>
       <c r="T14">
-        <v>0.001764055715355884</v>
+        <v>0.002241229125483532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H15">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I15">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J15">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>15.60502551394858</v>
+        <v>15.73565155440322</v>
       </c>
       <c r="R15">
-        <v>15.60502551394858</v>
+        <v>141.620863989629</v>
       </c>
       <c r="S15">
-        <v>0.1319911711301792</v>
+        <v>0.1122851971028429</v>
       </c>
       <c r="T15">
-        <v>0.1319911711301792</v>
+        <v>0.1122851971028429</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H16">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I16">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J16">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>0.02624317394200168</v>
+        <v>0.02745897464266667</v>
       </c>
       <c r="R16">
-        <v>0.02624317394200168</v>
+        <v>0.247130771784</v>
       </c>
       <c r="S16">
-        <v>0.0002219712655824638</v>
+        <v>0.0001959395433569465</v>
       </c>
       <c r="T16">
-        <v>0.0002219712655824638</v>
+        <v>0.0001959395433569465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H17">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I17">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J17">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>2.701103582235179</v>
+        <v>2.942503368186111</v>
       </c>
       <c r="R17">
-        <v>2.701103582235179</v>
+        <v>26.482530313675</v>
       </c>
       <c r="S17">
-        <v>0.0228466031564297</v>
+        <v>0.02099687893636045</v>
       </c>
       <c r="T17">
-        <v>0.0228466031564297</v>
+        <v>0.02099687893636045</v>
       </c>
     </row>
   </sheetData>
